--- a/biology/Botanique/Nothofagus/Nothofagus.xlsx
+++ b/biology/Botanique/Nothofagus/Nothofagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nothofagus est un genre qui regroupe des espèces d'arbres à feuilles caduques ou persistantes, originaires des régions tropicales humides et de régions tempérées de l'hémisphère sud :  Nouvelle-Guinée, Australie, Amérique du Sud, Nouvelle-Calédonie, Nouvelle-Zélande. 
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Nothofagus dérive du grec νόθος / nóthos, « bâtard ; hybride », et du latin fagus, nom latin du hêtre (du grec φέγοσ / phégos)[1], « Le nom, qui signifie « hêtre bâtard », fait référence à la
-ressemblance de ses fruits avec ceux de nos hêtres [de l'hémisphère Nord]. Mais les Nothofagus sont aussi les vicariants [dans l'hémisphère Sud] des hêtres et chênes de l'hémisphère Nord, c'est-à-dire qu'ils occupent les mêmes niches écologiques dans deux parties différentes du monde. »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Nothofagus dérive du grec νόθος / nóthos, « bâtard ; hybride », et du latin fagus, nom latin du hêtre (du grec φέγοσ / phégos), « Le nom, qui signifie « hêtre bâtard », fait référence à la
+ressemblance de ses fruits avec ceux de nos hêtres [de l'hémisphère Nord]. Mais les Nothofagus sont aussi les vicariants [dans l'hémisphère Sud] des hêtres et chênes de l'hémisphère Nord, c'est-à-dire qu'ils occupent les mêmes niches écologiques dans deux parties différentes du monde. ».
 </t>
         </is>
       </c>
@@ -545,12 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Histoire du genre Nothofagus
-La position du genre Nothofagus, arbres proches des hêtres de l'hémisphère nord, est encore discutée. Classiquement, le genre est placé parmi les Fagaceae. La classification APG (Angiosperm Phylogeny Group) le place dans une nouvelle famille qui lui est dédiée : les Nothofagaceae, proche des Fagaceae et des Betulaceae dans l'ordre des Fagales. 
+          <t>Histoire du genre Nothofagus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position du genre Nothofagus, arbres proches des hêtres de l'hémisphère nord, est encore discutée. Classiquement, le genre est placé parmi les Fagaceae. La classification APG (Angiosperm Phylogeny Group) le place dans une nouvelle famille qui lui est dédiée : les Nothofagaceae, proche des Fagaceae et des Betulaceae dans l'ordre des Fagales. 
 En 1850, le taxonomiste Blume sépare ces espèces des hêtres de l'hémisphère nord. Il les appelle Nothofagus, c’est-à-dire « faux hêtres ». Un siècle plus tard, de nouvelles espèces furent découvertes en Nouvelle-Guinée et en Nouvelle-Calédonie par le botaniste van Steenis. Le genre est connu et apprécié par les amateurs de bonsaï.
 Les botanistes ont effectué une sous-classification à l'intérieur du genre, certaines espèces montrant des caractéristiques absentes chez les autres. La classification s'est faite sur la base des groupes polliniques. Les espèces sont réparties en quatre sous-genres :
-Brassospora
-Ce sous-genre représente plus de la moitié de toutes les espèces du genre (19 répertoriées sur un total de 35). C'est le sous-genre le plus ancien. Confiné aux montagnes de la Nouvelle-Guinée et à la Nouvelle-Calédonie, il est aujourd'hui localisé uniquement sous les latitudes tropicales sous des conditions climatiques non tropicales (forêts de montagne). Il était pourtant très répandu autrefois en Australie et en Nouvelle-Zélande avant que les glaciations du Quaternaire ne l'éradiquent des régions les plus froides de l'hémisphère sud. Les espèces Brassospora produisent toutes une cupule réduite, bivalve, qui ne renferme qu'un seul akène. Elles ont toutes un feuillage persistant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nothofagus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nothofagus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brassospora</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce sous-genre représente plus de la moitié de toutes les espèces du genre (19 répertoriées sur un total de 35). C'est le sous-genre le plus ancien. Confiné aux montagnes de la Nouvelle-Guinée et à la Nouvelle-Calédonie, il est aujourd'hui localisé uniquement sous les latitudes tropicales sous des conditions climatiques non tropicales (forêts de montagne). Il était pourtant très répandu autrefois en Australie et en Nouvelle-Zélande avant que les glaciations du Quaternaire ne l'éradiquent des régions les plus froides de l'hémisphère sud. Les espèces Brassospora produisent toutes une cupule réduite, bivalve, qui ne renferme qu'un seul akène. Elles ont toutes un feuillage persistant.
 Nothofagus aequilateralis Steen. Nouvelle-Calédonie (endémique)
 Nothofagus balansae Steen. Nouvelle-Calédonie (endémique)
 Nothofagus baumanniae Steen. Nouvelle-Calédonie (endémique)
@@ -570,9 +624,43 @@
 Nothofagus rubra Steen. Nouvelle-Guinée
 Nothofagus starkenborghii Steen. Nouvelle-Guinée
 Nothofagus stylosa Steen. Nouvelle-Guinée
-Nothofagus womersleyi Steen. Nouvelle-Guinée
-Lophozonia
-Deuxième sous-genre à apparaître dans les fossiles. Il est peu variable, les espèces actuelles étant proches génétiquement les unes des autres. Il est présent des deux côtés du Pacifique, en Océanie et en Amérique du Sud. N. moorei et N. menziesii forment des forêts importantes dans leurs habitats respectifs. Les espèces d'Océanie ont un feuillage persistant plusieurs années. En revanche, les cinq espèces sud-américaines ont un feuillage caduc. 
+Nothofagus womersleyi Steen. Nouvelle-Guinée</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nothofagus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nothofagus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lophozonia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deuxième sous-genre à apparaître dans les fossiles. Il est peu variable, les espèces actuelles étant proches génétiquement les unes des autres. Il est présent des deux côtés du Pacifique, en Océanie et en Amérique du Sud. N. moorei et N. menziesii forment des forêts importantes dans leurs habitats respectifs. Les espèces d'Océanie ont un feuillage persistant plusieurs années. En revanche, les cinq espèces sud-américaines ont un feuillage caduc. 
 Nothofagus alpina (Poepp. et Endl.) Oerst. Chili, Argentine
 Nothofagus cunninghamii (Hook.) Oerst. Australie (Victoria, Tasmanie)
 Nothofagus glauca (Phil.) Krasser. Chili.
@@ -580,50 +668,119 @@
 Nothofagus menziesii (Hook.) Oerst., Nouvelle-Zélande
 Nothofagus moorei (F. Muell.) Krasser Australie
 Nothofagus obliqua (Mirb.) Blume. Chili. Argentine
-Nothofagus rutila Rav. Chili
-Fuscospora
-Un des derniers genres à apparaître dans les fossiles. Proche du sous-genre Nothofagus, il est principalement représenté en Nouvelle-Zélande où l'hybridation est généralisée entre les trois espèces néo-zélandaises qui ont un feuillage persistant ou semi-persistant. Il existe une autre espèce en Tasmanie, N. gunnii, qui pousse dans les zones montagneuses très humides. La dernière espèce, N. alessandri, est une essence à feuillage caduc qui ne vit qu'en quelques stations du Chili central.
+Nothofagus rutila Rav. Chili</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nothofagus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nothofagus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fuscospora</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un des derniers genres à apparaître dans les fossiles. Proche du sous-genre Nothofagus, il est principalement représenté en Nouvelle-Zélande où l'hybridation est généralisée entre les trois espèces néo-zélandaises qui ont un feuillage persistant ou semi-persistant. Il existe une autre espèce en Tasmanie, N. gunnii, qui pousse dans les zones montagneuses très humides. La dernière espèce, N. alessandri, est une essence à feuillage caduc qui ne vit qu'en quelques stations du Chili central.
 Nothofagus alessandri Espinosa. Chili
 Nothofagus fusca (Hook.) Oerst. Nouvelle-Zélande
 Nothofagus gunnii (Hook.) Oerst.  Tasmanie
 Nothofagus solanderi (Hook.) Oerst., Nouvelle-Zélande
-Nothofagus truncata (Col.) Ckn. Nouvelle-Zélande
-Nothofagus
-Ce sous-genre n'est représenté qu'en Amérique du Sud. Il a disparu de l'Océanie. On le rencontre au Chili méridional, dans les montagnes du Chili central et dans les Andes humides de l'Argentine. Trois des espèces de ce sous-genre sont à feuillage persistant : N. nitida, N. betuloides et N. dombeyi. Elles occupent des zones très arrosées, fraîches l'été et à hivers relativement doux. N. antarctica et N. pumilio sont à feuillage caduc et se retrouvent dans les lieux plus froids.
+Nothofagus truncata (Col.) Ckn. Nouvelle-Zélande</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nothofagus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nothofagus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nothofagus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ce sous-genre n'est représenté qu'en Amérique du Sud. Il a disparu de l'Océanie. On le rencontre au Chili méridional, dans les montagnes du Chili central et dans les Andes humides de l'Argentine. Trois des espèces de ce sous-genre sont à feuillage persistant : N. nitida, N. betuloides et N. dombeyi. Elles occupent des zones très arrosées, fraîches l'été et à hivers relativement doux. N. antarctica et N. pumilio sont à feuillage caduc et se retrouvent dans les lieux plus froids.
 Nothofagus antarctica (Forst.) Oerst. Chili, Argentine
 Nothofagus betuloides (Mirb.) Blume. Chili, Argentine
 Nothofagus dombeyi (Mirb.) Blume. Chili, Argentine
 Nothofagus nitida (Phil.) Krasser. Chili
-Nothofagus pumilio (Poepp et Endl.) Krasser. Chili
-Arbre phylogénétique des sous-genres selon Vento, B. and Agraín, F.A. 2018. (en)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nothofagus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Nothofagus pumilio (Poepp et Endl.) Krasser. Chili</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nothofagus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nothofagus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Origine géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nothofagus sont tous situés dans l'hémisphère austral. Leur répartition géographique naturelle est confinée à cinq endroits du globe.
 </t>
